--- a/datos_fbref/CLASIFICACION_LIGA_Bundesliga.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_Bundesliga.xlsx
@@ -961,35 +961,35 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="n">
         <v>-7</v>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>D D D W W</t>
+          <t>D D W W D</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gladbach</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -1194,13 +1194,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" t="n">
         <v>-12</v>
@@ -1209,24 +1209,24 @@
         <v>22</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>D L D D L</t>
+          <t>W W W L D</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50747</v>
+        <v>30939</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Haris Tabakovic - 10</t>
+          <t>Nadiem Amiri - 10</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Moritz Nicolas</t>
+          <t>Daniel Batz</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Gladbach</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1247,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>25</v>
@@ -1262,27 +1262,27 @@
         <v>-12</v>
       </c>
       <c r="J15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>L W W W L</t>
+          <t>D L D D L</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30939</v>
+        <v>50747</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Nadiem Amiri - 9</t>
+          <t>Haris Tabakovic - 10</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Daniel Batz</t>
+          <t>Moritz Nicolas</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
